--- a/design DB Backend.xlsx
+++ b/design DB Backend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learning-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7709001-7B6B-4DE2-AB0E-E5A05883545A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AE4F49-29B4-4FE8-8F07-83BED013EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="desgin" sheetId="1" r:id="rId1"/>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>P0</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>P1</t>
@@ -815,6 +812,9 @@
   <si>
     <t>#ERROR!</t>
   </si>
+  <si>
+    <t>Doctor of Medicine</t>
+  </si>
 </sst>
 </file>
 
@@ -1204,7 +1204,7 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1537,7 +1537,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1859,14 +1861,14 @@
         <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" ref="E21:E25" si="4">"INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.key, ALLCODES.valueEn, ALLCODES.valueVi) values ('"&amp;$A21&amp;"','"&amp;$B21&amp;"','"&amp;$C21&amp;"', '"&amp;$D21&amp;"' ); "</f>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.key, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P0','None', 'Bác sĩ' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.key, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P0','Doctor', 'Bác sĩ' ); </v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -1874,13 +1876,13 @@
         <v>105</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1892,17 +1894,17 @@
         <v>105</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.key, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P2','Doctor', 'Tiến sĩ' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.key, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P2','Doctor of Medicine', 'Tiến sĩ' ); </v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -1910,13 +1912,13 @@
         <v>105</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1928,13 +1930,13 @@
         <v>105</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1949,16 +1951,16 @@
     </row>
     <row r="27" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" ref="E27:E29" si="5">"INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.key, ALLCODES.valueEn, ALLCODES.valueVi) values ('"&amp;$A27&amp;"','"&amp;$B27&amp;"','"&amp;$C27&amp;"', '"&amp;$D27&amp;"' ); "</f>
@@ -1967,16 +1969,16 @@
     </row>
     <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E28" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2006,16 +2008,16 @@
     </row>
     <row r="29" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="E29" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4973,8 +4975,8 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4986,13 +4988,13 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -5022,10 +5024,10 @@
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -5055,10 +5057,10 @@
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -5088,7 +5090,7 @@
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -5119,7 +5121,7 @@
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -5150,7 +5152,7 @@
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -5181,7 +5183,7 @@
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -5212,7 +5214,7 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -5330,10 +5332,10 @@
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -5363,7 +5365,7 @@
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -5394,10 +5396,10 @@
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -34030,7 +34032,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -34043,7 +34047,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>54</v>
@@ -34352,14 +34356,14 @@
         <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" ref="E21:E25" si="4">"INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('"&amp;$A21&amp;"','"&amp;$B21&amp;"','"&amp;$C21&amp;"', '"&amp;$D21&amp;"' ); "</f>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P0','None', 'Bác sĩ' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P0','Doctor', 'Bác sĩ' ); </v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -34367,13 +34371,13 @@
         <v>105</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="4"/>
@@ -34385,17 +34389,17 @@
         <v>105</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P2','Doctor', 'Tiến sĩ' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P2','Doctor of Medicine', 'Tiến sĩ' ); </v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -34403,13 +34407,13 @@
         <v>105</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="4"/>
@@ -34421,13 +34425,13 @@
         <v>105</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="4"/>
@@ -34442,16 +34446,16 @@
     </row>
     <row r="27" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" ref="E27:E29" si="5">"INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('"&amp;$A27&amp;"','"&amp;$B27&amp;"','"&amp;$C27&amp;"', '"&amp;$D27&amp;"' ); "</f>
@@ -34460,16 +34464,16 @@
     </row>
     <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="5"/>
@@ -34499,16 +34503,16 @@
     </row>
     <row r="29" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="5"/>
@@ -37466,7 +37470,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37479,7 +37485,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>54</v>
@@ -37793,14 +37799,14 @@
         <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" ref="E21:E25" si="4">"INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('"&amp;$A21&amp;"','"&amp;$B21&amp;"','"&amp;$C21&amp;"', '"&amp;$D21&amp;"' ); "</f>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P0','None', 'Bác sĩ' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P0','Doctor', 'Bác sĩ' ); </v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -37808,13 +37814,13 @@
         <v>105</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="4"/>
@@ -37826,17 +37832,17 @@
         <v>105</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P2','Doctor', 'Tiến sĩ' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('POSITION','P2','Doctor of Medicine', 'Tiến sĩ' ); </v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -37844,13 +37850,13 @@
         <v>105</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="4"/>
@@ -37862,13 +37868,13 @@
         <v>105</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="4"/>
@@ -37883,16 +37889,16 @@
     </row>
     <row r="27" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" ref="E27:E29" si="5">"INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('"&amp;$A27&amp;"','"&amp;$B27&amp;"','"&amp;$C27&amp;"', '"&amp;$D27&amp;"' ); "</f>
@@ -37901,16 +37907,16 @@
     </row>
     <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="5"/>
@@ -37940,16 +37946,16 @@
     </row>
     <row r="29" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="5"/>
@@ -37985,10 +37991,10 @@
     </row>
     <row r="31" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
@@ -38003,10 +38009,10 @@
     </row>
     <row r="32" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="6">
         <v>15</v>
@@ -38021,10 +38027,10 @@
     </row>
     <row r="33" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C33" s="6">
         <v>20</v>
@@ -38039,10 +38045,10 @@
     </row>
     <row r="34" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="6">
         <v>25</v>
@@ -38057,10 +38063,10 @@
     </row>
     <row r="35" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="6">
         <v>30</v>
@@ -38075,10 +38081,10 @@
     </row>
     <row r="36" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="6">
         <v>35</v>
@@ -38093,10 +38099,10 @@
     </row>
     <row r="37" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="6">
         <v>40</v>
@@ -38117,16 +38123,16 @@
     </row>
     <row r="39" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" ref="E39:E41" si="7">"INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('"&amp;$A39&amp;"','"&amp;$B39&amp;"','"&amp;$C39&amp;"', '"&amp;$D39&amp;"' ); "</f>
@@ -38135,16 +38141,16 @@
     </row>
     <row r="40" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="7"/>
@@ -38153,16 +38159,16 @@
     </row>
     <row r="41" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E41" s="2" t="str">
         <f t="shared" si="7"/>
@@ -38177,16 +38183,16 @@
     </row>
     <row r="43" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="E43" s="2" t="str">
         <f t="shared" ref="E43:E52" si="8">"INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('"&amp;$A43&amp;"','"&amp;$B43&amp;"','"&amp;$C43&amp;"', '"&amp;$D43&amp;"' ); "</f>
@@ -38195,16 +38201,16 @@
     </row>
     <row r="44" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="E44" s="2" t="str">
         <f t="shared" si="8"/>
@@ -38213,16 +38219,16 @@
     </row>
     <row r="45" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="E45" s="2" t="str">
         <f t="shared" si="8"/>
@@ -38231,16 +38237,16 @@
     </row>
     <row r="46" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="E46" s="2" t="str">
         <f t="shared" si="8"/>
@@ -38249,16 +38255,16 @@
     </row>
     <row r="47" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="E47" s="2" t="str">
         <f t="shared" si="8"/>
@@ -38267,16 +38273,16 @@
     </row>
     <row r="48" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="8"/>
@@ -38285,16 +38291,16 @@
     </row>
     <row r="49" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="8"/>
@@ -38303,16 +38309,16 @@
     </row>
     <row r="50" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="8"/>
@@ -38321,16 +38327,16 @@
     </row>
     <row r="51" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="E51" s="2" t="str">
         <f t="shared" si="8"/>
@@ -38339,16 +38345,16 @@
     </row>
     <row r="52" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="E52" s="2" t="str">
         <f t="shared" si="8"/>
@@ -44072,16 +44078,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -44108,17 +44114,17 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -44133,7 +44139,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44146,7 +44154,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>54</v>
@@ -44172,10 +44180,10 @@
         <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44196,7 +44204,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('ROLE','R2','Doctor', 'Bác sĩ', '0000-00-00 00:00:01' ); </v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44217,7 +44225,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('ROLE','R3','Patient', 'Bệnh nhân', '0000-00-00 00:00:02' ); </v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44226,7 +44234,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="K5" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44247,7 +44255,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('STATUS','S1','New', 'Lịch hẹn mới', '0000-00-00 00:00:04' ); </v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44268,7 +44276,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('STATUS','S2','Confirmed', 'Đã xác nhận', '0000-00-00 00:00:05' ); </v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44289,7 +44297,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('STATUS','S3','Done', 'Đã khám xong', '0000-00-00 00:00:06' ); </v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44310,7 +44318,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('STATUS','S4','Cancel', 'Đã hủy', '0000-00-00 00:00:07' ); </v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44319,7 +44327,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="K10" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44340,7 +44348,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('TIME','T1','8:00 AM - 9:00 AM', '8:00 - 9:00', '0000-00-00 00:00:09' ); </v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44361,7 +44369,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('TIME','T2','9:00 AM - 10:00 AM', '9:00 - 10:00', '0000-00-00 00:00:10' ); </v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44382,7 +44390,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('TIME','T3','10:00 AM - 11:00 AM', '10:00 - 11:00', '0000-00-00 00:00:11' ); </v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44403,7 +44411,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('TIME','T4','11:00 AM - 0:00 PM', '11:00 - 12:00', '0000-00-00 00:00:12' ); </v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44412,7 +44420,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="K15" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44433,7 +44441,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('TIME','T5','1:00 PM - 2:00 PM', '13:00 - 14:00', '0000-00-00 00:00:14' ); </v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44454,7 +44462,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('TIME','T6','2:00 PM - 3:00 PM', '14:00 - 15:00', '0000-00-00 00:00:15' ); </v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44475,7 +44483,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('TIME','T7','3:00 PM - 4:00 PM', '15:00 - 16:00', '0000-00-00 00:00:16' ); </v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44496,7 +44504,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('TIME','T8','4:00 PM - 5:00 PM', '16:00 - 17:00', '0000-00-00 00:00:17' ); </v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44509,7 +44517,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('','','', '', '0000-00-00 00:00:18' ); </v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -44520,17 +44528,17 @@
         <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('POSITION','P0','None', 'Bác sĩ', '0000-00-00 00:00:19' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('POSITION','P0','Doctor', 'Bác sĩ', '0000-00-00 00:00:19' ); </v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -44538,20 +44546,20 @@
         <v>105</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('POSITION','P1','Master', 'Thạc sĩ', '0000-00-00 00:00:20' ); </v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -44559,20 +44567,20 @@
         <v>105</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('POSITION','P2','Doctor', 'Tiến sĩ', '0000-00-00 00:00:21' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('POSITION','P2','Doctor of Medicine', 'Tiến sĩ', '0000-00-00 00:00:21' ); </v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -44580,20 +44588,20 @@
         <v>105</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('POSITION','P3','Associate Professor', 'Phó giáo sư', '0000-00-00 00:00:22' ); </v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -44601,20 +44609,20 @@
         <v>105</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('POSITION','P4','Professor', 'Giáo sư', '0000-00-00 00:00:23' ); </v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
@@ -44627,42 +44635,42 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('','','', '', '0000-00-00 00:00:24' ); </v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('GENDER','M','Male', 'Nam', '0000-00-00 00:00:25' ); </v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="3"/>
@@ -44674,7 +44682,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -44694,16 +44702,16 @@
     </row>
     <row r="29" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="3"/>
@@ -44715,7 +44723,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -44743,15 +44751,15 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('','','', '', '0000-00-00 00:00:28' ); </v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
@@ -44764,15 +44772,15 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PRICE','PRI1','10', '200000', '0000-00-00 00:00:29' ); </v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="6">
         <v>15</v>
@@ -44785,15 +44793,15 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PRICE','PRI2','15', '250000', '0000-00-00 00:00:30' ); </v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C33" s="6">
         <v>20</v>
@@ -44806,15 +44814,15 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PRICE','PRI3','20', '300000', '0000-00-00 00:00:31' ); </v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="6">
         <v>25</v>
@@ -44827,15 +44835,15 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PRICE','PRI4','25', '350000', '0000-00-00 00:00:32' ); </v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="6">
         <v>30</v>
@@ -44848,15 +44856,15 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PRICE','PRI5','30', '400000', '0000-00-00 00:00:33' ); </v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="6">
         <v>35</v>
@@ -44869,15 +44877,15 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PRICE','PRI6','35', '450000', '0000-00-00 00:00:34' ); </v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="6">
         <v>40</v>
@@ -44890,7 +44898,7 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PRICE','PRI7','40', '500000', '0000-00-00 00:00:35' ); </v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
@@ -44903,70 +44911,70 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('','','', '', '0000-00-00 00:00:36' ); </v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PAYMENT','PAY1','Cash', 'Tiền mặt', '0000-00-00 00:00:37' ); </v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PAYMENT','PAY2','Credit card', 'Thẻ ATM', '0000-00-00 00:00:38' ); </v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E41" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PAYMENT','PAY3','All payment method', 'Tất cả', '0000-00-00 00:00:39' ); </v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
@@ -44979,217 +44987,217 @@
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('','','', '', '0000-00-00 00:00:40' ); </v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="E43" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PROVINCE','PRO1','Ha Noi', 'Hà Nội', '0000-00-00 00:00:41' ); </v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="E44" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PROVINCE','PRO2','Ho Chi Minh', 'Hồ Chí Minh', '0000-00-00 00:00:42' ); </v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="E45" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PROVINCE','PRO3','Da Nang', 'Đà Nẵng', '0000-00-00 00:00:43' ); </v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="E46" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PROVINCE','PRO4','Can Tho', 'Cần Thơ', '0000-00-00 00:00:44' ); </v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="E47" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PROVINCE','PRO5','Binh Duong', 'Bình Dương', '0000-00-00 00:00:45' ); </v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PROVINCE','PRO6','Dong Nai', 'Đồng Nai', '0000-00-00 00:00:46' ); </v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PROVINCE','PRO7','Quang Ninh', 'Quảng Ninh', '0000-00-00 00:00:47' ); </v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PROVINCE','PRO8','Hue', 'Thừa Thiên Huế', '0000-00-00 00:00:48' ); </v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="E51" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PROVINCE','PRO9','Quang Binh', 'Quảng Bình', '0000-00-00 00:00:49' ); </v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="E52" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">INSERT INTO ALLCODES (type,keymap, valueen, valuevi) values ('PROVINCE','PRO10','Khanh Hoa', 'Khánh Hòa', '0000-00-00 00:00:50' ); </v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">

--- a/design DB Backend.xlsx
+++ b/design DB Backend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learning-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AE4F49-29B4-4FE8-8F07-83BED013EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61FE651-E025-4009-AFDC-7A22D962EA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="desgin" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="261">
   <si>
     <t>users</t>
   </si>
@@ -815,12 +815,30 @@
   <si>
     <t>Doctor of Medicine</t>
   </si>
+  <si>
+    <t>tiền mặt và quẹt thẻ</t>
+  </si>
+  <si>
+    <t>tiền mặt</t>
+  </si>
+  <si>
+    <t>quẹt thẻ</t>
+  </si>
+  <si>
+    <t>credit card</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>cash and credit card</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -880,6 +898,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -925,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -950,6 +975,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4975,7 +5003,7 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -37470,14 +37498,14 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37916,11 +37944,11 @@
         <v>123</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('GENDER','F','Female', 'Nữ' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('GENDER','F','Female', 'Nam' ); </v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -38128,15 +38156,15 @@
       <c r="B39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>157</v>
+      <c r="C39" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" ref="E39:E41" si="7">"INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('"&amp;$A39&amp;"','"&amp;$B39&amp;"','"&amp;$C39&amp;"', '"&amp;$D39&amp;"' ); "</f>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('PAYMENT','PAY1','Cash', 'Tiền mặt' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('PAYMENT','PAY1','cash', 'tiền mặt' ); </v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
@@ -38146,15 +38174,15 @@
       <c r="B40" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>160</v>
+      <c r="C40" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('PAYMENT','PAY2','Credit card', 'Thẻ ATM' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('PAYMENT','PAY2','credit card', 'quẹt thẻ' ); </v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
@@ -38164,15 +38192,15 @@
       <c r="B41" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>162</v>
+      <c r="C41" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="E41" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('PAYMENT','PAY3','All payment method', 'Tất cả' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('PAYMENT','PAY3','cash and credit card', 'tiền mặt và quẹt thẻ' ); </v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
@@ -44056,6 +44084,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/design DB Backend.xlsx
+++ b/design DB Backend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learning-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61FE651-E025-4009-AFDC-7A22D962EA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E955426-5E65-4652-8707-3782B104D9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37498,8 +37498,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37944,11 +37944,11 @@
         <v>123</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('GENDER','F','Female', 'Nam' ); </v>
+        <v xml:space="preserve">INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('GENDER','F','Female', 'Nữ' ); </v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
